--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori3/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori3/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,20 +776,50 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Check whether propellers are installed correctly</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori3/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori3/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
+          <t>Check whether propellers are installed correctly</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -790,36 +790,6 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
